--- a/fehlberg.xlsx
+++ b/fehlberg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>t</t>
   </si>
@@ -43,7 +43,310 @@
     <t xml:space="preserve"> k6</t>
   </si>
   <si>
+    <t xml:space="preserve"> Erro</t>
+  </si>
+  <si>
     <t xml:space="preserve"> dw/dt</t>
+  </si>
+  <si>
+    <t>7680000,01600,0</t>
+  </si>
+  <si>
+    <t>689474,762106289-479,4005847953216</t>
+  </si>
+  <si>
+    <t>7921223,5994146691624,9331883100783</t>
+  </si>
+  <si>
+    <t>4,648630538247528E8-12448,066166072447</t>
+  </si>
+  <si>
+    <t>7,982501369885922E10163120,62377155054</t>
+  </si>
+  <si>
+    <t>3,10132961511317E13-3215239,553083186</t>
+  </si>
+  <si>
+    <t>2,3405762633576216E168,832848282325888E7</t>
+  </si>
+  <si>
+    <t>3,097445234228032E19-3,213225396299919E9</t>
+  </si>
+  <si>
+    <t>6,67464440865349E221,4916036569917505E11</t>
+  </si>
+  <si>
+    <t>2,213772342715805E26-8,590250952321484E12</t>
+  </si>
+  <si>
+    <t>1,0810010612054594E306,002780081499625E14</t>
+  </si>
+  <si>
+    <t>7,496733656629233E33-4,9989111003061568E16</t>
+  </si>
+  <si>
+    <t>7,166776063116041E374,8876634032756531E18</t>
+  </si>
+  <si>
+    <t>9,210288539234176E41-5,540844863145624E20</t>
+  </si>
+  <si>
+    <t>1,5573904946712292E467,205068805295406E22</t>
+  </si>
+  <si>
+    <t>3,4012024669935033E50-1,0647695317130844E25</t>
+  </si>
+  <si>
+    <t>9,439101294804293E541,7738001855530676E27</t>
+  </si>
+  <si>
+    <t>3,2815437241982808E59-3,3073371586006976E29</t>
+  </si>
+  <si>
+    <t>1,4110870041841276E646,8582966888874275E31</t>
+  </si>
+  <si>
+    <t>7,420237382621059E68-1,5727086382651067E34</t>
+  </si>
+  <si>
+    <t>4,7230670826399796E733,9678151345713253E36</t>
+  </si>
+  <si>
+    <t>3,6053637394251937E78-1,0962608782318793E39</t>
+  </si>
+  <si>
+    <t>3,272906110155776E833,3029815370135796E41</t>
+  </si>
+  <si>
+    <t>3,506186706185467E88-1,0810776577387132E44</t>
+  </si>
+  <si>
+    <t>4,401372198121912E933,830305557054995E46</t>
+  </si>
+  <si>
+    <t>6,432368669818706E98-1,4642823805330613E49</t>
+  </si>
+  <si>
+    <t>1,0878706725804777E1046,021823291386305E51</t>
+  </si>
+  <si>
+    <t>2,117348859942802E109-2,6566575867323725E54</t>
+  </si>
+  <si>
+    <t>4,7181606858244287E1141,2540814282207287E57</t>
+  </si>
+  <si>
+    <t>1,1979202620912481E120-6,319072353046893E59</t>
+  </si>
+  <si>
+    <t>3,449893921135236E1253,3911128562441147E62</t>
+  </si>
+  <si>
+    <t>1,1222218270269598E131-1,934099124508152E65</t>
+  </si>
+  <si>
+    <t>4,1070724811044344E1361,170053058783295E68</t>
+  </si>
+  <si>
+    <t>1,684826013614562E142-7,494055452189115E70</t>
+  </si>
+  <si>
+    <t>7,720206151019906E1475,0728710316151035E73</t>
+  </si>
+  <si>
+    <t>3,938417380562507E153-3,6232661971221984E76</t>
+  </si>
+  <si>
+    <t>2,229872697986829E1592,7263361849356416E79</t>
+  </si>
+  <si>
+    <t>1,3970844177948205E165-2,157996306603899E82</t>
+  </si>
+  <si>
+    <t>9,659059107999455E1701,7943484525958584E85</t>
+  </si>
+  <si>
+    <t>7,349595368001195E176-1,5652044986732773E88</t>
+  </si>
+  <si>
+    <t>6,139205831841626E1821,4305250588323186E91</t>
+  </si>
+  <si>
+    <t>5,616135689651554E188-1,3682270388659375E94</t>
+  </si>
+  <si>
+    <t>5,613646884252322E1941,367923838553926E97</t>
+  </si>
+  <si>
+    <t>6,117665787628661E200-1,4280132804738035E100</t>
+  </si>
+  <si>
+    <t>7,253591824526714E2061,5549482118414442E103</t>
+  </si>
+  <si>
+    <t>9,338570689777966E212-1,76432902163759E106</t>
+  </si>
+  <si>
+    <t>1,3029806226794593E2192,0840510411851396E109</t>
+  </si>
+  <si>
+    <t>1,9666668929743178E225-2,560382063269932E112</t>
+  </si>
+  <si>
+    <t>3,205505953368877E2313,2687948611931774E115</t>
+  </si>
+  <si>
+    <t>5,6325300186008154E237-4,333024355113033E118</t>
+  </si>
+  <si>
+    <t>1,0652426893226121E2445,958866473087568E121</t>
+  </si>
+  <si>
+    <t>2,164989414196572E250-8,49507585643309E124</t>
+  </si>
+  <si>
+    <t>4,7214427031885076E2561,2545175305256476E128</t>
+  </si>
+  <si>
+    <t>1,1032629747844563E263-1,9176921674975682E131</t>
+  </si>
+  <si>
+    <t>2,758450042903395E2693,0322983818128206E134</t>
+  </si>
+  <si>
+    <t>7,369717758166457E275-4,956382335994153E137</t>
+  </si>
+  <si>
+    <t>2,1012343634046674E2828,369058814874122E140</t>
+  </si>
+  <si>
+    <t>6,385480497981908E288-1,4589357420144667E144</t>
+  </si>
+  <si>
+    <t>2,0657794808719507E2952,6241058673206198E147</t>
+  </si>
+  <si>
+    <t>7,106222974243151E301-4,866971328674932E150</t>
+  </si>
+  <si>
+    <t>Infinity9,303006500380387E153</t>
+  </si>
+  <si>
+    <t>Infinity-1,8316296347967884E157</t>
+  </si>
+  <si>
+    <t>Infinity3,7125470439881164E160</t>
+  </si>
+  <si>
+    <t>Infinity-7,74289757949415E163</t>
+  </si>
+  <si>
+    <t>Infinity1,660796289076076E167</t>
+  </si>
+  <si>
+    <t>Infinity-3,661854151459843E170</t>
+  </si>
+  <si>
+    <t>Infinity8,295722994759932E173</t>
+  </si>
+  <si>
+    <t>Infinity-1,9300944262181764E177</t>
+  </si>
+  <si>
+    <t>Infinity4,609801408853405E180</t>
+  </si>
+  <si>
+    <t>Infinity-1,12974087574488E184</t>
+  </si>
+  <si>
+    <t>Infinity2,8397964821258768E187</t>
+  </si>
+  <si>
+    <t>Infinity-7,318651434936981E190</t>
+  </si>
+  <si>
+    <t>Infinity1,9330311064091427E194</t>
+  </si>
+  <si>
+    <t>Infinity-5,230504212406959E197</t>
+  </si>
+  <si>
+    <t>Infinity1,4493809950661968E201</t>
+  </si>
+  <si>
+    <t>Infinity-4,111472616920198E204</t>
+  </si>
+  <si>
+    <t>Infinity1,1935308067230343E208</t>
+  </si>
+  <si>
+    <t>Infinity-3,544383232182327E211</t>
+  </si>
+  <si>
+    <t>Infinity1,0763949485608242E215</t>
+  </si>
+  <si>
+    <t>Infinity-3,341821620145884E218</t>
+  </si>
+  <si>
+    <t>Infinity1,0603168104478435E222</t>
+  </si>
+  <si>
+    <t>Infinity-3,437100563091376E225</t>
+  </si>
+  <si>
+    <t>Infinity1,1379407949883918E229</t>
+  </si>
+  <si>
+    <t>Infinity-3,846693888421603E232</t>
+  </si>
+  <si>
+    <t>Infinity1,3272990267655732E236</t>
+  </si>
+  <si>
+    <t>Infinity-4,67346099962136E239</t>
+  </si>
+  <si>
+    <t>Infinity1,6787090529326323E243</t>
+  </si>
+  <si>
+    <t>Infinity-6,14978776039295E246</t>
+  </si>
+  <si>
+    <t>Infinity2,2970804124550854E250</t>
+  </si>
+  <si>
+    <t>Infinity-8,74600284346544E253</t>
+  </si>
+  <si>
+    <t>Infinity3,3935069304544684E257</t>
+  </si>
+  <si>
+    <t>Infinity-1,3414801765773925E261</t>
+  </si>
+  <si>
+    <t>Infinity5,401434236633411E264</t>
+  </si>
+  <si>
+    <t>Infinity-2,214717461188167E268</t>
+  </si>
+  <si>
+    <t>Infinity9,24504768385226E271</t>
+  </si>
+  <si>
+    <t>Infinity-3,9280841717095524E275</t>
+  </si>
+  <si>
+    <t>Infinity1,6983781728087239E279</t>
+  </si>
+  <si>
+    <t>Infinity-7,470902740161312E282</t>
+  </si>
+  <si>
+    <t>Infinity3,3427335647148777E286</t>
+  </si>
+  <si>
+    <t>Infinity-1,5209927858757706E290</t>
   </si>
 </sst>
 </file>
@@ -528,8 +831,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -872,13 +1176,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -909,325 +1215,3508 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>1600</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.83281249999999996</v>
+        <v>-250</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>-1.99609374999999</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-5.3968749999999996</v>
+        <v>-3000</v>
       </c>
       <c r="I2">
-        <v>3.5847656250000002</v>
+        <v>-250</v>
       </c>
       <c r="J2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-479.40058479532098</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>-1600</v>
+      </c>
+      <c r="E3">
+        <v>-1500</v>
+      </c>
+      <c r="F3">
+        <v>-1600</v>
+      </c>
+      <c r="G3">
+        <v>-1300</v>
+      </c>
+      <c r="H3">
+        <v>1600</v>
+      </c>
+      <c r="I3">
+        <v>-300</v>
+      </c>
+      <c r="J3">
+        <v>-2079.4005847953199</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1624.9331883100699</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>958.80116959064298</v>
+      </c>
+      <c r="E4">
+        <v>539.32565789473597</v>
+      </c>
+      <c r="F4">
+        <v>958.80116959064298</v>
+      </c>
+      <c r="G4">
+        <v>-1558.05190058479</v>
+      </c>
+      <c r="H4">
+        <v>-11505.614035087699</v>
+      </c>
+      <c r="I4">
+        <v>898.87609649122805</v>
+      </c>
+      <c r="J4">
+        <v>2104.3337731053998</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-12448.0661660724</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>-4874.7995649302302</v>
+      </c>
+      <c r="E5">
+        <v>-1320.25821550193</v>
+      </c>
+      <c r="F5">
+        <v>-4874.7995649302302</v>
+      </c>
+      <c r="G5">
+        <v>27116.072579924399</v>
+      </c>
+      <c r="H5">
+        <v>126744.788688186</v>
+      </c>
+      <c r="I5">
+        <v>-13507.257127827501</v>
+      </c>
+      <c r="J5">
+        <v>-14072.9993543825</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>163120.62377154999</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>49792.264664289702</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>49792.264664289702</v>
+      </c>
+      <c r="G6">
+        <v>-547714.91130718705</v>
+      </c>
+      <c r="H6">
+        <v>-2178411.57906267</v>
+      </c>
+      <c r="I6">
+        <v>280081.48873663001</v>
+      </c>
+      <c r="J6">
+        <v>175568.689937622</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-      <c r="D3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E3">
-        <v>0.94921875</v>
-      </c>
-      <c r="F3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G3">
-        <v>-2.7435546875000001</v>
-      </c>
-      <c r="H3">
-        <v>-7.3312499999999998</v>
-      </c>
-      <c r="I3">
-        <v>4.4517578125000004</v>
-      </c>
-      <c r="J3">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>6.5</v>
-      </c>
-      <c r="B4">
-        <v>0.2</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-      <c r="D4">
-        <v>0.6</v>
-      </c>
-      <c r="E4">
-        <v>1.0718749999999999</v>
-      </c>
-      <c r="F4">
-        <v>0.6</v>
-      </c>
-      <c r="G4">
-        <v>-3.6468749999999899</v>
-      </c>
-      <c r="H4">
-        <v>-9.6687499999999993</v>
-      </c>
-      <c r="I4">
-        <v>5.44921875</v>
-      </c>
-      <c r="J4">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B7">
+        <v>-3215239.55308318</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>-815603.11885775195</v>
+      </c>
+      <c r="E7">
+        <v>214095.81870015999</v>
+      </c>
+      <c r="F7">
+        <v>-815603.11885775195</v>
+      </c>
+      <c r="G7" s="1">
+        <v>14629880.944510899</v>
+      </c>
+      <c r="H7" s="1">
+        <v>53340443.973297</v>
+      </c>
+      <c r="I7">
+        <v>-7738034.5901629301</v>
+      </c>
+      <c r="J7">
+        <v>-3378360.1768547301</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>0.2</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>0.65</v>
-      </c>
-      <c r="E5">
-        <v>1.2007812499999999</v>
-      </c>
-      <c r="F5">
-        <v>0.65</v>
-      </c>
-      <c r="G5">
-        <v>-4.7201171874999996</v>
-      </c>
-      <c r="H5">
-        <v>-12.446875</v>
-      </c>
-      <c r="I5">
-        <v>6.5865234375000004</v>
-      </c>
-      <c r="J5">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>7.5</v>
-      </c>
-      <c r="B6">
-        <v>0.2</v>
-      </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-      <c r="D6">
-        <v>0.7</v>
-      </c>
-      <c r="E6">
-        <v>1.3359375</v>
-      </c>
-      <c r="F6">
-        <v>0.7</v>
-      </c>
-      <c r="G6">
-        <v>-5.9773437499999904</v>
-      </c>
-      <c r="H6">
-        <v>-15.703125</v>
-      </c>
-      <c r="I6">
-        <v>7.873046875</v>
-      </c>
-      <c r="J6">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B8" s="1">
+        <v>88328482.823258802</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>19291437.318499099</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-10047623.603384901</v>
+      </c>
+      <c r="F8" s="1">
+        <v>19291437.318499099</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-508811659.27541399</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-1755520795.9834099</v>
+      </c>
+      <c r="I8" s="1">
+        <v>276912506.50928903</v>
+      </c>
+      <c r="J8" s="1">
+        <v>91543722.376341999</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>0.2</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="D7">
-        <v>0.75</v>
-      </c>
-      <c r="E7">
-        <v>1.47734375</v>
-      </c>
-      <c r="F7">
-        <v>0.75</v>
-      </c>
-      <c r="G7">
-        <v>-7.4326171874999902</v>
-      </c>
-      <c r="H7">
-        <v>-19.475000000000001</v>
-      </c>
-      <c r="I7">
-        <v>9.3181640624999993</v>
-      </c>
-      <c r="J7">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8.5</v>
-      </c>
-      <c r="B8">
-        <v>0.2</v>
-      </c>
-      <c r="C8">
-        <v>0.5</v>
-      </c>
-      <c r="D8">
-        <v>0.8</v>
-      </c>
-      <c r="E8">
-        <v>1.625</v>
-      </c>
-      <c r="F8">
-        <v>0.8</v>
-      </c>
-      <c r="G8">
-        <v>-9.0999999999999908</v>
-      </c>
-      <c r="H8">
-        <v>-23.799999999999901</v>
-      </c>
-      <c r="I8">
-        <v>10.93125</v>
-      </c>
-      <c r="J8">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B9" s="1">
+        <v>-3213225396.2999101</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-618299379.76281202</v>
+      </c>
+      <c r="E9" s="1">
+        <v>480286125.35146999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-618299379.76281202</v>
+      </c>
+      <c r="G9" s="1">
+        <v>22451996227.6371</v>
+      </c>
+      <c r="H9" s="1">
+        <v>74549239502.830399</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-12504000849.6675</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-3301553879.1231699</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>0.2</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-      <c r="D9">
-        <v>0.85</v>
-      </c>
-      <c r="E9">
-        <v>1.7789062499999999</v>
-      </c>
-      <c r="F9">
-        <v>0.85</v>
-      </c>
-      <c r="G9">
-        <v>-10.9935546875</v>
-      </c>
-      <c r="H9">
-        <v>-28.715624999999999</v>
-      </c>
-      <c r="I9">
-        <v>12.7216796875</v>
-      </c>
-      <c r="J9">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9.5</v>
-      </c>
-      <c r="B10">
-        <v>0.2</v>
+      <c r="B10" s="1">
+        <v>149160365699.17499</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
-      </c>
-      <c r="D10">
-        <v>0.9</v>
-      </c>
-      <c r="E10">
-        <v>1.9390624999999999</v>
-      </c>
-      <c r="F10">
-        <v>0.9</v>
-      </c>
-      <c r="G10">
-        <v>-13.12734375</v>
-      </c>
-      <c r="H10">
-        <v>-34.259374999999999</v>
-      </c>
-      <c r="I10">
-        <v>14.698828125</v>
-      </c>
-      <c r="J10">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25705803170.3993</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-26509109519.4743</v>
+      </c>
+      <c r="F10" s="1">
+        <v>25705803170.3993</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-1227452101386.5601</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-3961906913637.7998</v>
+      </c>
+      <c r="I10" s="1">
+        <v>696466604648.00696</v>
+      </c>
+      <c r="J10" s="1">
+        <v>152373591095.474</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0.2</v>
+      <c r="B11" s="1">
+        <v>-8590250952321.4805</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
-      </c>
-      <c r="D11">
-        <v>0.95</v>
-      </c>
-      <c r="E11">
-        <v>2.10546875</v>
-      </c>
-      <c r="F11">
-        <v>0.95</v>
-      </c>
-      <c r="G11">
-        <v>-15.515429687499999</v>
-      </c>
-      <c r="H11">
-        <v>-40.46875</v>
-      </c>
-      <c r="I11">
-        <v>16.8720703125</v>
-      </c>
-      <c r="J11">
-        <v>1.4</v>
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1342443291292.5701</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1724666728396.71</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-1342443291292.5701</v>
+      </c>
+      <c r="G11" s="1">
+        <v>81469527240318.094</v>
+      </c>
+      <c r="H11" s="1">
+        <v>257301630831076</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-46938902580959.102</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-8739411318020.6504</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>600278008149962</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>85902509523214.797</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-132075108391942</v>
+      </c>
+      <c r="F12" s="1">
+        <v>85902509523214.797</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-6453426027931510</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-2.00324652208137E+16</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3765751261223930</v>
+      </c>
+      <c r="J12" s="1">
+        <v>608868259102284</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-4.9989111003061504E+16</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-6603058089649580</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.18179732854523E+16</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-6603058089649580</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6.0129097728871501E+17</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.8404523729877801E+18</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-3.5465175069009901E+17</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-5.0589389011211504E+16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4.88766340327565E+18</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.9986933203673805E+17</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1.2247332195750001E+18</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5.9986933203673805E+17</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-6.5085822525986103E+19</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-1.9690710824105899E+20</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3.8741561027372704E+19</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4.9376525142787103E+18</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-5.5408448631456203E+20</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-6.3539624242583396E+19</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.4571346521015501E+20</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-6.3539624242583396E+19</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8.0973308644142298E+21</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.4257473470457E+22</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-4.8580319438932898E+21</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-5.58972149717838E+20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7.2050688052954002E+22</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7.7571828084038697E+21</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-1.9739259824956202E+22</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7.7571828084038697E+21</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-1.14709340779272E+24</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-3.4076195908345499E+24</v>
+      </c>
+      <c r="I16" s="1">
+        <v>6.9295191069714905E+23</v>
+      </c>
+      <c r="J16" s="1">
+        <v>7.2604772539268602E+22</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-1.0647695317130799E+25</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-1.08076032079431E+24</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3.02162573022076E+24</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-1.08076032079431E+24</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.8352661197488299E+26</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5.4124476865378997E+26</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-1.11538968273976E+26</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-1.07197460051837E+25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.7738001855530599E+27</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.7036312507409299E+26</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-5.1907514671012797E+26</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.7036312507409299E+26</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-3.2922673920568498E+28</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-9.6478767268522503E+28</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2.01161583778894E+28</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.78444788087019E+27</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-3.3073371586006898E+29</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-3.0154603154402101E+28</v>
+      </c>
+      <c r="E19" s="1">
+        <v>9.9443672902568796E+28</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-3.0154603154402101E+28</v>
+      </c>
+      <c r="G19" s="1">
+        <v>6.5793574757511101E+30</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.9173006205643099E+31</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-4.0392756100391201E+30</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-3.3250751604562198E+29</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6.8582966888874203E+31</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.95320688548125E+30</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-2.1125616100561902E+31</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5.95320688548125E+30</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-1.45630323436085E+33</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-4.2228080841013702E+33</v>
+      </c>
+      <c r="I20" s="1">
+        <v>8.9790069684560603E+32</v>
+      </c>
+      <c r="J20" s="1">
+        <v>6.8913700604734296E+31</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-1.5727086382651E+34</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-1.3030763708886099E+33</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4.9508329222906102E+33</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-1.3030763708886099E+33</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3.55169753340327E+35</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.02531535498867E+36</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-2.1982984105599401E+35</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-1.5795669349539901E+34</v>
+      </c>
+      <c r="K21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3.96781513457132E+36</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.1454172765302101E+35</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-1.27389399699473E+36</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3.1454172765302101E+35</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-9.4991601751212395E+37</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-2.7313230920750098E+38</v>
+      </c>
+      <c r="I22" s="1">
+        <v>5.9000164564515404E+37</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3.98354222095397E+36</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-1.0962608782318699E+39</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-8.3324117825997803E+37</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.5834330434097201E+38</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-8.3324117825997803E+37</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2.77417234786931E+40</v>
+      </c>
+      <c r="H23" s="1">
+        <v>7.9479304960598202E+40</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-1.7285538645313999E+40</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-1.10022869336645E+39</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3.3029815370135699E+41</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.4117739321101301E+40</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-1.09763120432966E+41</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2.4117739321101301E+40</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-8.8120190044473994E+42</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-2.5163572198934502E+43</v>
+      </c>
+      <c r="I24" s="1">
+        <v>5.5066554239684999E+42</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3.3139441457958902E+41</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-1.0810776577387101E+44</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-7.5968575351312299E+42</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.6477302349393699E+43</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-7.5968575351312299E+42</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3.0335201744970899E+45</v>
+      </c>
+      <c r="H25" s="1">
+        <v>8.6366361229830999E+45</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-1.9007213691090699E+45</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-1.0843806392757199E+44</v>
+      </c>
+      <c r="K25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.8303055570549899E+46</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.5945863785729099E+45</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-1.3108066600081801E+46</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.5945863785729099E+45</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-1.12799642808457E+48</v>
+      </c>
+      <c r="H26" s="1">
+        <v>-3.2026925610509298E+48</v>
+      </c>
+      <c r="I26" s="1">
+        <v>7.0851126994050901E+47</v>
+      </c>
+      <c r="J26" s="1">
+        <v>3.8411163336323799E+46</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-1.46428238053306E+49</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-9.5757638926374801E+47</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5.0775488040710198E+48</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-9.5757638926374801E+47</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4.5167681311084399E+50</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.27920714688965E+51</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-2.8434991485089698E+50</v>
+      </c>
+      <c r="J27" s="1">
+        <v>-1.46811268609011E+49</v>
+      </c>
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6.0218232913862995E+51</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.8071341893859501E+50</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-2.1140576868946002E+51</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3.8071341893859501E+50</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-1.9421143283605099E+53</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-5.4875446492856997E+53</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1.2252199783812799E+53</v>
+      </c>
+      <c r="J28" s="1">
+        <v>6.0364661151916295E+51</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-2.6566575867323701E+54</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-1.6258922886743E+53</v>
+      </c>
+      <c r="E29" s="1">
+        <v>9.43544436969091E+53</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-1.6258922886743E+53</v>
+      </c>
+      <c r="G29" s="1">
+        <v>8.9434237703890797E+55</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2.5215782850351001E+56</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-5.6531747967667498E+55</v>
+      </c>
+      <c r="J29" s="1">
+        <v>-2.6626794100237501E+54</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.25408142822072E+57</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7.4386412428506398E+55</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-4.5030346095113701E+56</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7.4386412428506398E+55</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-4.3999562951461501E+58</v>
+      </c>
+      <c r="H30" s="1">
+        <v>-1.23808213514488E+59</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2.7863024769649101E+58</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1.25673808580746E+57</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>-6.3190723530468898E+59</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-3.6368361418401102E+58</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.2926176109660099E+59</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-3.6368361418401102E+58</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2.3073452297386799E+61</v>
+      </c>
+      <c r="H31" s="1">
+        <v>6.4804657803306101E+61</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-1.46363059686748E+61</v>
+      </c>
+      <c r="J31" s="1">
+        <v>-6.3316131673290999E+59</v>
+      </c>
+      <c r="K31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3.3911128562441101E+62</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.89572170591406E+61</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-1.2424876014178399E+62</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.89572170591406E+61</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-1.2869580731024099E+64</v>
+      </c>
+      <c r="H32" s="1">
+        <v>-3.6083166950368299E+64</v>
+      </c>
+      <c r="I32" s="1">
+        <v>8.1766426596294404E+63</v>
+      </c>
+      <c r="J32" s="1">
+        <v>3.3974319285971599E+62</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-1.93409912450815E+65</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-1.05124498543567E+64</v>
+      </c>
+      <c r="E33" s="1">
+        <v>7.1531286811399298E+64</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-1.05124498543567E+64</v>
+      </c>
+      <c r="G33" s="1">
+        <v>7.6195550600609502E+66</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2.1328743420632901E+67</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-4.8482952450275604E+66</v>
+      </c>
+      <c r="J33" s="1">
+        <v>-1.93749023736439E+65</v>
+      </c>
+      <c r="K33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.17005305878329E+68</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6.1891171984260801E+66</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-4.3662287735771501E+67</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6.1891171984260801E+66</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-4.7795457564845397E+69</v>
+      </c>
+      <c r="H34" s="1">
+        <v>-1.33586292430653E+70</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3.0454808339286401E+69</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1.1719871579078E+68</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>-7.4940554521891102E+70</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-3.86117509398487E+69</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.82055915482948E+70</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-3.86117509398487E+69</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3.1707487224916999E+72</v>
+      </c>
+      <c r="H35" s="1">
+        <v>8.8494622994956903E+72</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-2.0230436771311598E+72</v>
+      </c>
+      <c r="J35" s="1">
+        <v>-7.5057559827769401E+70</v>
+      </c>
+      <c r="K35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5.0728710316150998E+73</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2.5479788537442901E+72</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-1.9250354942810699E+73</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2.5479788537442901E+72</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-2.2208820683948702E+75</v>
+      </c>
+      <c r="H36" s="1">
+        <v>-6.1900898035081998E+75</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.4187652106391201E+75</v>
+      </c>
+      <c r="J36" s="1">
+        <v>5.0803650870672898E+73</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-3.6232661971221901E+76</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-1.77550486106528E+75</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.38584495494935E+76</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-1.77550486106528E+75</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.6397897082476E+78</v>
+      </c>
+      <c r="H37" s="1">
+        <v>4.5646708116679002E+78</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-1.0487812097980801E+78</v>
+      </c>
+      <c r="J37" s="1">
+        <v>-3.6283390681538097E+76</v>
+      </c>
+      <c r="K37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2.7263361849356399E+79</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.30437583096399E+78</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-1.05074719716543E+79</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.30437583096399E+78</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-1.27437518685181E+81</v>
+      </c>
+      <c r="H38" s="1">
+        <v>-3.5432282468277599E+81</v>
+      </c>
+      <c r="I38" s="1">
+        <v>8.1597766392290398E+80</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2.72995945113276E+79</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-2.1579963066038901E+82</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-1.0087443884261799E+81</v>
+      </c>
+      <c r="E39" s="1">
+        <v>8.3783718883303397E+81</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-1.0087443884261799E+81</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1.0409611623315399E+84</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2.8909796271439001E+84</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-6.67228182260108E+83</v>
+      </c>
+      <c r="J39" s="1">
+        <v>-2.1607226427888301E+82</v>
+      </c>
+      <c r="K39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.7943484525958501E+85</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8.2003859650948102E+83</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-7.0161854918459197E+84</v>
+      </c>
+      <c r="F40" s="1">
+        <v>8.2003859650948102E+83</v>
+      </c>
+      <c r="G40" s="1">
+        <v>-8.9250950747600702E+86</v>
+      </c>
+      <c r="H40" s="1">
+        <v>-2.47604180227118E+87</v>
+      </c>
+      <c r="I40" s="1">
+        <v>5.7264859741579298E+86</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1.7965064489024601E+85</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>-1.56520449867327E+88</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-6.9979589651238401E+86</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6.1624654668839003E+87</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-6.9979589651238401E+86</v>
+      </c>
+      <c r="G41" s="1">
+        <v>8.0218478362085295E+89</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2.2231977327662602E+90</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-5.1518547743484195E+89</v>
+      </c>
+      <c r="J41" s="1">
+        <v>-1.56699884712587E+88</v>
+      </c>
+      <c r="K41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.4305250588323101E+91</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6.2608179946931E+89</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-5.6699532964439397E+90</v>
+      </c>
+      <c r="F42" s="1">
+        <v>6.2608179946931E+89</v>
+      </c>
+      <c r="G42" s="1">
+        <v>-7.5489812971012096E+92</v>
+      </c>
+      <c r="H42" s="1">
+        <v>-2.0901271313933301E+93</v>
+      </c>
+      <c r="I42" s="1">
+        <v>4.8525643771242902E+92</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1.43209026333099E+91</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>-1.36822703886593E+94</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-5.8651527412125003E+92</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5.4583471776070596E+93</v>
+      </c>
+      <c r="F43" s="1">
+        <v>-5.8651527412125003E+92</v>
+      </c>
+      <c r="G43" s="1">
+        <v>7.4293156628846103E+95</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2.0551066047690901E+96</v>
+      </c>
+      <c r="I43" s="1">
+        <v>-4.7797686751683299E+95</v>
+      </c>
+      <c r="J43" s="1">
+        <v>-1.3696575639247601E+94</v>
+      </c>
+      <c r="K43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.36792383855392E+97</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5.7465535632369302E+95</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-5.4917212772481501E+96</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5.7465535632369302E+95</v>
+      </c>
+      <c r="G44" s="1">
+        <v>-7.6378880047372897E+98</v>
+      </c>
+      <c r="H44" s="1">
+        <v>-2.1109554046439201E+99</v>
+      </c>
+      <c r="I44" s="1">
+        <v>4.9180065770136799E+98</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1.3692920655927901E+97</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>-1.4280132804738E+100</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-5.8820725057818802E+98</v>
+      </c>
+      <c r="E45" s="1">
+        <v>5.7683638367020801E+99</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-5.8820725057818802E+98</v>
+      </c>
+      <c r="G45" s="1">
+        <v>8.1940946300857705E+101</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2.2627922552591302E+102</v>
+      </c>
+      <c r="I45" s="1">
+        <v>-5.2802971606300298E+101</v>
+      </c>
+      <c r="J45" s="1">
+        <v>-1.4293812043123501E+100</v>
+      </c>
+      <c r="K45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1.55494821184144E+103</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>6.2832584340847302E+101</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-6.3189587660965803E+102</v>
+      </c>
+      <c r="F46" s="1">
+        <v>6.2832584340847302E+101</v>
+      </c>
+      <c r="G46" s="1">
+        <v>-9.1641324261125803E+104</v>
+      </c>
+      <c r="H46" s="1">
+        <v>-2.5286545163989799E+105</v>
+      </c>
+      <c r="I46" s="1">
+        <v>5.9098329612408295E+104</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1.55637622512191E+103</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>-1.7643290216375899E+106</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-6.9972669532864996E+104</v>
+      </c>
+      <c r="E47" s="1">
+        <v>7.2120441750470996E+105</v>
+      </c>
+      <c r="F47" s="1">
+        <v>-6.9972669532864996E+104</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1.06738934080539E+108</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2.9430038321059402E+108</v>
+      </c>
+      <c r="I47" s="1">
+        <v>-6.8884108600312703E+107</v>
+      </c>
+      <c r="J47" s="1">
+        <v>-1.7658839698494299E+106</v>
+      </c>
+      <c r="K47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2.08405104118513E+109</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>8.1159134995329098E+107</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-8.5680228113275398E+108</v>
+      </c>
+      <c r="F48" s="1">
+        <v>8.1159134995329098E+107</v>
+      </c>
+      <c r="G48" s="1">
+        <v>-1.2935751629067999E+111</v>
+      </c>
+      <c r="H48" s="1">
+        <v>-3.5640504834492298E+111</v>
+      </c>
+      <c r="I48" s="1">
+        <v>8.3538553222135094E+110</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2.0858153702067702E+109</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>-2.5603820632699301E+112</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-9.7950398935701496E+110</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1.0585676757319699E+112</v>
+      </c>
+      <c r="F49" s="1">
+        <v>-9.7950398935701496E+110</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1.62971098129206E+114</v>
+      </c>
+      <c r="H49" s="1">
+        <v>4.48704525371325E+114</v>
+      </c>
+      <c r="I49" s="1">
+        <v>-1.05315565568439E+114</v>
+      </c>
+      <c r="J49" s="1">
+        <v>-2.5624661143111101E+112</v>
+      </c>
+      <c r="K49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>3.26879486119317E+115</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.22898339036956E+114</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-1.35892278008051E+115</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1.22898339036956E+114</v>
+      </c>
+      <c r="G50" s="1">
+        <v>-2.13259342813879E+117</v>
+      </c>
+      <c r="H50" s="1">
+        <v>-5.8677043858575998E+117</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1.37900257641171E+117</v>
+      </c>
+      <c r="J50" s="1">
+        <v>3.2713552432564401E+115</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>-4.3330243551130304E+118</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-1.6017094819846499E+117</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1.8111166527798401E+118</v>
+      </c>
+      <c r="F51" s="1">
+        <v>-1.6017094819846499E+117</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2.8961910639561299E+120</v>
+      </c>
+      <c r="H51" s="1">
+        <v>7.9636014805818699E+120</v>
+      </c>
+      <c r="I51" s="1">
+        <v>-1.8739081590665699E+120</v>
+      </c>
+      <c r="J51" s="1">
+        <v>-4.3362931499742202E+118</v>
+      </c>
+      <c r="K51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>5.9588664730875599E+121</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2.1665121775565099E+120</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-2.5039464492109401E+121</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2.1665121775565099E+120</v>
+      </c>
+      <c r="G52" s="1">
+        <v>-4.0787299882723302E+123</v>
+      </c>
+      <c r="H52" s="1">
+        <v>-1.12083207598579E+124</v>
+      </c>
+      <c r="I52" s="1">
+        <v>2.6405829559689799E+123</v>
+      </c>
+      <c r="J52" s="1">
+        <v>5.9631994974426801E+121</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>-8.49507585643309E+124</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-3.0390219012746501E+123</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3.5883549042624198E+124</v>
+      </c>
+      <c r="F53" s="1">
+        <v>-3.0390219012746501E+123</v>
+      </c>
+      <c r="G53" s="1">
+        <v>5.9521143325152499E+126</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1.6346720040962201E+127</v>
+      </c>
+      <c r="I53" s="1">
+        <v>-3.8555839955395699E+126</v>
+      </c>
+      <c r="J53" s="1">
+        <v>-8.5010347229061696E+124</v>
+      </c>
+      <c r="K53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1.2545175305256401E+128</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4.4174394453452002E+126</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-5.3264125619835401E+127</v>
+      </c>
+      <c r="F54" s="1">
+        <v>4.4174394453452002E+126</v>
+      </c>
+      <c r="G54" s="1">
+        <v>-8.99390671072284E+129</v>
+      </c>
+      <c r="H54" s="1">
+        <v>-2.4686605488035901E+130</v>
+      </c>
+      <c r="I54" s="1">
+        <v>5.8291086757879703E+129</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1.25536703811129E+128</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>-1.9176921674975599E+131</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-6.6489429117859304E+129</v>
+      </c>
+      <c r="E55" s="1">
+        <v>8.1833746663101096E+130</v>
+      </c>
+      <c r="F55" s="1">
+        <v>-6.6489429117859304E+129</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1.4062098699495199E+133</v>
+      </c>
+      <c r="H55" s="1">
+        <v>3.8576790418922802E+133</v>
+      </c>
+      <c r="I55" s="1">
+        <v>-9.1186410075206801E+132</v>
+      </c>
+      <c r="J55" s="1">
+        <v>-1.9189466850280899E+131</v>
+      </c>
+      <c r="K55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>3.0322983818128202E+134</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1.03555377044868E+133</v>
+      </c>
+      <c r="E56" s="1">
+        <v>-1.3004350010842799E+134</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1.03555377044868E+133</v>
+      </c>
+      <c r="G56" s="1">
+        <v>-2.27342885879878E+136</v>
+      </c>
+      <c r="H56" s="1">
+        <v>-6.23345839045084E+136</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1.4749569739026099E+136</v>
+      </c>
+      <c r="J56" s="1">
+        <v>3.0342160739803099E+134</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>-4.9563823359941498E+137</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-1.66776410999705E+136</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2.1360646913382598E+137</v>
+      </c>
+      <c r="F57" s="1">
+        <v>-1.66776410999705E+136</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3.7980200547476598E+139</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1.04084248415401E+140</v>
+      </c>
+      <c r="I57" s="1">
+        <v>-2.4652756410922201E+139</v>
+      </c>
+      <c r="J57" s="1">
+        <v>-4.9594146343759602E+137</v>
+      </c>
+      <c r="K57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>8.3690588148741204E+140</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2.7755741081567199E+139</v>
+      </c>
+      <c r="E58" s="1">
+        <v>-3.6243545831957201E+140</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2.7755741081567199E+139</v>
+      </c>
+      <c r="G58" s="1">
+        <v>-6.5524365758309896E+142</v>
+      </c>
+      <c r="H58" s="1">
+        <v>-1.7948101278925301E+143</v>
+      </c>
+      <c r="I58" s="1">
+        <v>4.2551409721418603E+142</v>
+      </c>
+      <c r="J58" s="1">
+        <v>8.3740151972101103E+140</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>-1.4589357420144599E+144</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-4.7703635244782399E+142</v>
+      </c>
+      <c r="E59" s="1">
+        <v>6.3484541772579496E+143</v>
+      </c>
+      <c r="F59" s="1">
+        <v>-4.7703635244782399E+142</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1.16668184422723E+146</v>
+      </c>
+      <c r="H59" s="1">
+        <v>3.19421030881419E+146</v>
+      </c>
+      <c r="I59" s="1">
+        <v>-7.57983041532269E+145</v>
+      </c>
+      <c r="J59" s="1">
+        <v>-1.4597726478959499E+144</v>
+      </c>
+      <c r="K59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2.6241058673206098E+147</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>8.4618273036839002E+145</v>
+      </c>
+      <c r="E60" s="1">
+        <v>-1.1472705941266201E+147</v>
+      </c>
+      <c r="F60" s="1">
+        <v>8.4618273036839002E+145</v>
+      </c>
+      <c r="G60" s="1">
+        <v>-2.1426404461340602E+149</v>
+      </c>
+      <c r="H60" s="1">
+        <v>-5.8635794620155003E+149</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1.39266176226378E+149</v>
+      </c>
+      <c r="J60" s="1">
+        <v>2.6255648030626298E+147</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>-4.8669713286749299E+150</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>-1.54822246171916E+149</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2.1378262487827599E+150</v>
+      </c>
+      <c r="F61" s="1">
+        <v>-1.54822246171916E+149</v>
+      </c>
+      <c r="G61" s="1">
+        <v>4.0564396136080702E+152</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1.10960316599652E+153</v>
+      </c>
+      <c r="I61" s="1">
+        <v>-2.6376938155148302E+152</v>
+      </c>
+      <c r="J61" s="1">
+        <v>-4.8695954345422498E+150</v>
+      </c>
+      <c r="K61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>9.3030065003803798E+153</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2.92018279720495E+152</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-4.1052903157373003E+153</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2.92018279720495E+152</v>
+      </c>
+      <c r="G62" s="1">
+        <v>-7.9122352890268302E+155</v>
+      </c>
+      <c r="H62" s="1">
+        <v>-2.1634028243952999E+156</v>
+      </c>
+      <c r="I62" s="1">
+        <v>5.1470168589268803E+155</v>
+      </c>
+      <c r="J62" s="1">
+        <v>9.3078734717090593E+153</v>
+      </c>
+      <c r="K62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>-1.8316296347967799E+157</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>-5.67483396523203E+155</v>
+      </c>
+      <c r="E63" s="1">
+        <v>8.1197803611132504E+156</v>
+      </c>
+      <c r="F63" s="1">
+        <v>-5.67483396523203E+155</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1.58920178425094E+159</v>
+      </c>
+      <c r="H63" s="1">
+        <v>4.3434900079690904E+159</v>
+      </c>
+      <c r="I63" s="1">
+        <v>-1.03420534820288E+159</v>
+      </c>
+      <c r="J63" s="1">
+        <v>-1.8325599354468201E+157</v>
+      </c>
+      <c r="K63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3.7125470439881101E+160</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1.135610373574E+159</v>
+      </c>
+      <c r="E64" s="1">
+        <v>-1.6532746991084501E+160</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1.135610373574E+159</v>
+      </c>
+      <c r="G64" s="1">
+        <v>-3.2851788594529099E+162</v>
+      </c>
+      <c r="H64" s="1">
+        <v>-8.9752416386531302E+162</v>
+      </c>
+      <c r="I64" s="1">
+        <v>2.1387137907556799E+162</v>
+      </c>
+      <c r="J64" s="1">
+        <v>3.7143786736229098E+160</v>
+      </c>
+      <c r="K64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>-7.74289757949415E+163</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>-2.3389046377125099E+162</v>
+      </c>
+      <c r="E65" s="1">
+        <v>3.4635743578506599E+163</v>
+      </c>
+      <c r="F65" s="1">
+        <v>-2.3389046377125099E+162</v>
+      </c>
+      <c r="G65" s="1">
+        <v>6.9858696082276999E+165</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1.9078333753409601E+166</v>
+      </c>
+      <c r="I65" s="1">
+        <v>-4.5496173463380102E+165</v>
+      </c>
+      <c r="J65" s="1">
+        <v>-7.7466101265381294E+163</v>
+      </c>
+      <c r="K65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1.6607962890760699E+167</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>4.9554544508762503E+165</v>
+      </c>
+      <c r="E66" s="1">
+        <v>-7.4622175422374797E+166</v>
+      </c>
+      <c r="F66" s="1">
+        <v>4.9554544508762503E+165</v>
+      </c>
+      <c r="G66" s="1">
+        <v>-1.52739494812133E+169</v>
+      </c>
+      <c r="H66" s="1">
+        <v>-4.1697439189970797E+169</v>
+      </c>
+      <c r="I66" s="1">
+        <v>9.9508816105066505E+168</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1.66157057883402E+167</v>
+      </c>
+      <c r="K66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>-3.66185415145984E+170</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>-1.07951758789944E+169</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1.6525961073987601E+170</v>
+      </c>
+      <c r="F67" s="1">
+        <v>-1.07951758789944E+169</v>
+      </c>
+      <c r="G67" s="1">
+        <v>3.4319888214800802E+172</v>
+      </c>
+      <c r="H67" s="1">
+        <v>9.3658447687269497E+172</v>
+      </c>
+      <c r="I67" s="1">
+        <v>-2.23669712426913E+172</v>
+      </c>
+      <c r="J67" s="1">
+        <v>-3.6635149477489099E+170</v>
+      </c>
+      <c r="K67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>8.2957229947599305E+173</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2.41682373996349E+172</v>
+      </c>
+      <c r="E68" s="1">
+        <v>-3.7602664817803199E+173</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2.41682373996349E+172</v>
+      </c>
+      <c r="G68" s="1">
+        <v>-7.9214419106978493E+175</v>
+      </c>
+      <c r="H68" s="1">
+        <v>-2.1609919615259001E+176</v>
+      </c>
+      <c r="I68" s="1">
+        <v>5.1643083324861201E+175</v>
+      </c>
+      <c r="J68" s="1">
+        <v>8.2993848489113899E+173</v>
+      </c>
+      <c r="K68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>-1.9300944262181699E+177</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>-5.5581344064891499E+175</v>
+      </c>
+      <c r="E69" s="1">
+        <v>8.7867260995122798E+176</v>
+      </c>
+      <c r="F69" s="1">
+        <v>-5.5581344064891499E+175</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1.8772946341317499E+179</v>
+      </c>
+      <c r="H69" s="1">
+        <v>5.1195727146481702E+179</v>
+      </c>
+      <c r="I69" s="1">
+        <v>-1.2242853919801E+179</v>
+      </c>
+      <c r="J69" s="1">
+        <v>-1.9309239985176501E+177</v>
+      </c>
+      <c r="K69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>4.6098014088533999E+180</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1.31246420982836E+179</v>
+      </c>
+      <c r="E70" s="1">
+        <v>-2.1076631134302399E+180</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1.31246420982836E+179</v>
+      </c>
+      <c r="G70" s="1">
+        <v>-4.5660629859928598E+182</v>
+      </c>
+      <c r="H70" s="1">
+        <v>-1.2448008895284199E+183</v>
+      </c>
+      <c r="I70" s="1">
+        <v>2.9787243784546399E+182</v>
+      </c>
+      <c r="J70" s="1">
+        <v>4.6117315032796197E+180</v>
+      </c>
+      <c r="K70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>-1.12974087574488E+184</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <v>-3.1807629721088403E+182</v>
+      </c>
+      <c r="E71" s="1">
+        <v>5.1874671479003397E+183</v>
+      </c>
+      <c r="F71" s="1">
+        <v>-3.1807629721088403E+182</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1.13932941684081E+186</v>
+      </c>
+      <c r="H71" s="1">
+        <v>3.1050469839684301E+186</v>
+      </c>
+      <c r="I71" s="1">
+        <v>-7.4348461741221998E+185</v>
+      </c>
+      <c r="J71" s="1">
+        <v>-1.13020185588576E+184</v>
+      </c>
+      <c r="K71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2.8397964821258698E+187</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>7.9081861302141597E+185</v>
+      </c>
+      <c r="E72" s="1">
+        <v>-1.30951089259778E+187</v>
+      </c>
+      <c r="F72" s="1">
+        <v>7.9081861302141597E+185</v>
+      </c>
+      <c r="G72" s="1">
+        <v>-2.91525396457682E+189</v>
+      </c>
+      <c r="H72" s="1">
+        <v>-7.94255284765432E+189</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1.9029595380982799E+189</v>
+      </c>
+      <c r="J72" s="1">
+        <v>2.8409262230016198E+187</v>
+      </c>
+      <c r="K72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>-7.3186514349369798E+190</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <v>-2.01625550230937E+189</v>
+      </c>
+      <c r="E73" s="1">
+        <v>3.3891196141371001E+190</v>
+      </c>
+      <c r="F73" s="1">
+        <v>-2.01625550230937E+189</v>
+      </c>
+      <c r="G73" s="1">
+        <v>7.6462709446016099E+192</v>
+      </c>
+      <c r="H73" s="1">
+        <v>2.0825817889459001E+193</v>
+      </c>
+      <c r="I73" s="1">
+        <v>-4.9926337711158905E+192</v>
+      </c>
+      <c r="J73" s="1">
+        <v>-7.3214912314191007E+190</v>
+      </c>
+      <c r="K73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1.9330311064091401E+194</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>5.2694290331546205E+192</v>
+      </c>
+      <c r="E74" s="1">
+        <v>-8.9891336249613403E+193</v>
+      </c>
+      <c r="F74" s="1">
+        <v>5.2694290331546205E+192</v>
+      </c>
+      <c r="G74" s="1">
+        <v>-2.0549455872044699E+196</v>
+      </c>
+      <c r="H74" s="1">
+        <v>-5.5953212629009298E+196</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1.34215833833879E+196</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1.93376297155263E+194</v>
+      </c>
+      <c r="K74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>-5.23050421240695E+197</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>-1.41111270767867E+196</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2.4425056173921E+197</v>
+      </c>
+      <c r="F75" s="1">
+        <v>-1.41111270767867E+196</v>
+      </c>
+      <c r="G75" s="1">
+        <v>5.6567098723626499E+199</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1.5398003875256501E+200</v>
+      </c>
+      <c r="I75" s="1">
+        <v>-3.6956208194439802E+199</v>
+      </c>
+      <c r="J75" s="1">
+        <v>-5.2324372435133603E+197</v>
+      </c>
+      <c r="K75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1.44938099506619E+201</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3.8705731171811499E+199</v>
+      </c>
+      <c r="E76" s="1">
+        <v>-6.7963864109962898E+200</v>
+      </c>
+      <c r="F76" s="1">
+        <v>3.8705731171811499E+199</v>
+      </c>
+      <c r="G76" s="1">
+        <v>-1.5943374491308799E+203</v>
+      </c>
+      <c r="H76" s="1">
+        <v>-4.3387032441915697E+203</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1.04188701752527E+203</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1.44990404548743E+201</v>
+      </c>
+      <c r="K76" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>-4.1114726169201902E+204</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>-1.08703574629964E+203</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1.93592007784748E+204</v>
+      </c>
+      <c r="F77" s="1">
+        <v>-1.08703574629964E+203</v>
+      </c>
+      <c r="G77" s="1">
+        <v>4.5993161823279499E+206</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1.2512824994225299E+207</v>
+      </c>
+      <c r="I77" s="1">
+        <v>-3.0064047990465901E+206</v>
+      </c>
+      <c r="J77" s="1">
+        <v>-4.1129219979152597E+204</v>
+      </c>
+      <c r="K77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1.19353080672303E+208</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>3.1247191888593501E+206</v>
+      </c>
+      <c r="E78" s="1">
+        <v>-5.6429961667229704E+207</v>
+      </c>
+      <c r="F78" s="1">
+        <v>3.1247191888593501E+206</v>
+      </c>
+      <c r="G78" s="1">
+        <v>-1.3575342515999399E+210</v>
+      </c>
+      <c r="H78" s="1">
+        <v>-3.6923120950977998E+210</v>
+      </c>
+      <c r="I78" s="1">
+        <v>8.8759704295858293E+209</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1.1939419539847201E+208</v>
+      </c>
+      <c r="K78" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>-3.54438323218232E+211</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>-9.19018721176736E+209</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1.68265465045321E+211</v>
+      </c>
+      <c r="F79" s="1">
+        <v>-9.19018721176736E+209</v>
+      </c>
+      <c r="G79" s="1">
+        <v>4.09830654841758E+213</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1.1143985207064899E+214</v>
+      </c>
+      <c r="I79" s="1">
+        <v>-2.68026364546889E+213</v>
+      </c>
+      <c r="J79" s="1">
+        <v>-3.54557676298905E+211</v>
+      </c>
+      <c r="K79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1.07639494856082E+215</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2.7646189211022102E+213</v>
+      </c>
+      <c r="E80" s="1">
+        <v>-5.13093777648794E+214</v>
+      </c>
+      <c r="F80" s="1">
+        <v>2.7646189211022102E+213</v>
+      </c>
+      <c r="G80" s="1">
+        <v>-1.2650550605598599E+217</v>
+      </c>
+      <c r="H80" s="1">
+        <v>-3.4390370737554002E+217</v>
+      </c>
+      <c r="I80" s="1">
+        <v>8.2753772352298497E+216</v>
+      </c>
+      <c r="J80" s="1">
+        <v>1.0767493868840399E+215</v>
+      </c>
+      <c r="K80" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>-3.3418216201458799E+218</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <v>-8.5035200936305101E+216</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1.5994556188770901E+218</v>
+      </c>
+      <c r="F81" s="1">
+        <v>-8.5035200936305101E+216</v>
+      </c>
+      <c r="G81" s="1">
+        <v>3.9913928909483999E+220</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1.0847908291595901E+221</v>
+      </c>
+      <c r="I81" s="1">
+        <v>-2.6115931527430499E+220</v>
+      </c>
+      <c r="J81" s="1">
+        <v>-3.34289801509444E+218</v>
+      </c>
+      <c r="K81" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1.06031681044784E+222</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2.6734572961166998E+220</v>
+      </c>
+      <c r="E82" s="1">
+        <v>-5.0954425153174298E+221</v>
+      </c>
+      <c r="F82" s="1">
+        <v>2.6734572961166998E+220</v>
+      </c>
+      <c r="G82" s="1">
+        <v>-1.2868018330533701E+224</v>
+      </c>
+      <c r="H82" s="1">
+        <v>-3.4964710992613699E+224</v>
+      </c>
+      <c r="I82" s="1">
+        <v>8.4215659284026796E+223</v>
+      </c>
+      <c r="J82" s="1">
+        <v>1.06065099260985E+222</v>
+      </c>
+      <c r="K82" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>-3.4371005630913702E+225</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <v>-8.5885661646275304E+223</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1.65840176134108E+225</v>
+      </c>
+      <c r="F83" s="1">
+        <v>-8.5885661646275304E+223</v>
+      </c>
+      <c r="G83" s="1">
+        <v>4.2377595812428101E+227</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1.1512082277562399E+228</v>
+      </c>
+      <c r="I83" s="1">
+        <v>-2.77405584342819E+227</v>
+      </c>
+      <c r="J83" s="1">
+        <v>-3.4381608799018202E+225</v>
+      </c>
+      <c r="K83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1.13794079498839E+229</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2.81842246173492E+227</v>
+      </c>
+      <c r="E84" s="1">
+        <v>-5.5126796656281798E+228</v>
+      </c>
+      <c r="F84" s="1">
+        <v>2.81842246173492E+227</v>
+      </c>
+      <c r="G84" s="1">
+        <v>-1.42517054805703E+231</v>
+      </c>
+      <c r="H84" s="1">
+        <v>-3.8706701765219702E+231</v>
+      </c>
+      <c r="I84" s="1">
+        <v>9.3312769093441809E+230</v>
+      </c>
+      <c r="J84" s="1">
+        <v>1.1382845050447E+229</v>
+      </c>
+      <c r="K84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>-3.8466938884216E+232</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>-9.4449085984036501E+230</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1.8709880308599699E+232</v>
+      </c>
+      <c r="F85" s="1">
+        <v>-9.4449085984036501E+230</v>
+      </c>
+      <c r="G85" s="1">
+        <v>4.8929939300817499E+234</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1.3286118787150501E+235</v>
+      </c>
+      <c r="I85" s="1">
+        <v>-3.2043651788966398E+234</v>
+      </c>
+      <c r="J85" s="1">
+        <v>-3.8478318292165902E+232</v>
+      </c>
+      <c r="K85" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1.32729902676557E+236</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>3.23122286627414E+234</v>
+      </c>
+      <c r="E86" s="1">
+        <v>-6.4816792019904003E+235</v>
+      </c>
+      <c r="F86" s="1">
+        <v>3.23122286627414E+234</v>
+      </c>
+      <c r="G86" s="1">
+        <v>-1.7144868528450599E+238</v>
+      </c>
+      <c r="H86" s="1">
+        <v>-4.6544034376429199E+238</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1.12303266398996E+238</v>
+      </c>
+      <c r="J86" s="1">
+        <v>1.32768369615441E+236</v>
+      </c>
+      <c r="K86" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>-4.6734609996213603E+239</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>-1.12820417275073E+238</v>
+      </c>
+      <c r="E87" s="1">
+        <v>2.2913329011432401E+239</v>
+      </c>
+      <c r="F87" s="1">
+        <v>-1.12820417275073E+238</v>
+      </c>
+      <c r="G87" s="1">
+        <v>6.12946275779395E+241</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1.66364589124115E+242</v>
+      </c>
+      <c r="I87" s="1">
+        <v>-4.0157755583930103E+241</v>
+      </c>
+      <c r="J87" s="1">
+        <v>-4.6747882986481196E+239</v>
+      </c>
+      <c r="K87" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1.6787090529326301E+243</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>4.0191764596743698E+241</v>
+      </c>
+      <c r="E88" s="1">
+        <v>-8.2632632299555102E+242</v>
+      </c>
+      <c r="F88" s="1">
+        <v>4.0191764596743698E+241</v>
+      </c>
+      <c r="G88" s="1">
+        <v>-2.2352147483421501E+245</v>
+      </c>
+      <c r="H88" s="1">
+        <v>-6.0655261337345698E+245</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1.4647146695349501E+245</v>
+      </c>
+      <c r="J88" s="1">
+        <v>1.6791763990325901E+243</v>
+      </c>
+      <c r="K88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>-6.14978776039295E+246</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>-1.4604768760513899E+245</v>
+      </c>
+      <c r="E89" s="1">
+        <v>3.0391978210187201E+246</v>
+      </c>
+      <c r="F89" s="1">
+        <v>-1.4604768760513899E+245</v>
+      </c>
+      <c r="G89" s="1">
+        <v>8.3120303006322202E+248</v>
+      </c>
+      <c r="H89" s="1">
+        <v>2.25511730818379E+249</v>
+      </c>
+      <c r="I89" s="1">
+        <v>-5.4478567838585703E+248</v>
+      </c>
+      <c r="J89" s="1">
+        <v>-6.1514664694458798E+246</v>
+      </c>
+      <c r="K89" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2.29708041245508E+250</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>5.41181322914579E+248</v>
+      </c>
+      <c r="E90" s="1">
+        <v>-1.13970941669482E+250</v>
+      </c>
+      <c r="F90" s="1">
+        <v>5.41181322914579E+248</v>
+      </c>
+      <c r="G90" s="1">
+        <v>-3.1511635480008599E+252</v>
+      </c>
+      <c r="H90" s="1">
+        <v>-8.5476699554110407E+252</v>
+      </c>
+      <c r="I90" s="1">
+        <v>2.0657244708445698E+252</v>
+      </c>
+      <c r="J90" s="1">
+        <v>2.2976953912311199E+250</v>
+      </c>
+      <c r="K90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>-8.7460028434654406E+253</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <v>-2.0444015670850201E+252</v>
+      </c>
+      <c r="E91" s="1">
+        <v>4.35655656974684E+253</v>
+      </c>
+      <c r="F91" s="1">
+        <v>-2.0444015670850201E+252</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1.2175816858068699E+256</v>
+      </c>
+      <c r="H91" s="1">
+        <v>3.3021105199144899E+256</v>
+      </c>
+      <c r="I91" s="1">
+        <v>-7.9832660870701102E+255</v>
+      </c>
+      <c r="J91" s="1">
+        <v>-8.74829992387789E+253</v>
+      </c>
+      <c r="K91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>3.3935069304544599E+257</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>7.8714025591188899E+255</v>
+      </c>
+      <c r="E92" s="1">
+        <v>-1.69705252673892E+257</v>
+      </c>
+      <c r="F92" s="1">
+        <v>7.8714025591188899E+255</v>
+      </c>
+      <c r="G92" s="1">
+        <v>-4.79378255103539E+259</v>
+      </c>
+      <c r="H92" s="1">
+        <v>-1.29984143779924E+260</v>
+      </c>
+      <c r="I92" s="1">
+        <v>3.1436927798148102E+259</v>
+      </c>
+      <c r="J92" s="1">
+        <v>3.39438153073881E+257</v>
+      </c>
+      <c r="K92" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>-1.3414801765773901E+261</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>-3.0880913067135598E+259</v>
+      </c>
+      <c r="E93" s="1">
+        <v>6.7350507860363497E+260</v>
+      </c>
+      <c r="F93" s="1">
+        <v>-3.0880913067135598E+259</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1.92266494813053E+263</v>
+      </c>
+      <c r="H93" s="1">
+        <v>5.2123791360810301E+263</v>
+      </c>
+      <c r="I93" s="1">
+        <v>-1.2610808351852101E+263</v>
+      </c>
+      <c r="J93" s="1">
+        <v>-1.34181952727043E+261</v>
+      </c>
+      <c r="K93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>5.40143423663341E+264</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1.2341617624512E+263</v>
+      </c>
+      <c r="E94" s="1">
+        <v>-2.7225340183638098E+264</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1.2341617624512E+263</v>
+      </c>
+      <c r="G94" s="1">
+        <v>-7.85358837535821E+266</v>
+      </c>
+      <c r="H94" s="1">
+        <v>-2.1287398915234199E+267</v>
+      </c>
+      <c r="I94" s="1">
+        <v>5.1520887661631302E+266</v>
+      </c>
+      <c r="J94" s="1">
+        <v>5.4027757168099802E+264</v>
+      </c>
+      <c r="K94" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>-2.21471746118816E+268</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>-5.0233338400690698E+266</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1.1206963272094899E+268</v>
+      </c>
+      <c r="F95" s="1">
+        <v>-5.0233338400690698E+266</v>
+      </c>
+      <c r="G95" s="1">
+        <v>3.2663914336684098E+270</v>
+      </c>
+      <c r="H95" s="1">
+        <v>8.8521026886669993E+270</v>
+      </c>
+      <c r="I95" s="1">
+        <v>-2.14317533738752E+270</v>
+      </c>
+      <c r="J95" s="1">
+        <v>-2.21525760461183E+268</v>
+      </c>
+      <c r="K95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>9.2450476838522606E+271</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2.0818344135168699E+270</v>
+      </c>
+      <c r="E96" s="1">
+        <v>-4.6965852161321498E+271</v>
+      </c>
+      <c r="F96" s="1">
+        <v>2.0818344135168699E+270</v>
+      </c>
+      <c r="G96" s="1">
+        <v>-1.38293657796909E+274</v>
+      </c>
+      <c r="H96" s="1">
+        <v>-3.7471912084573103E+274</v>
+      </c>
+      <c r="I96" s="1">
+        <v>9.0753723185679408E+273</v>
+      </c>
+      <c r="J96" s="1">
+        <v>9.2472624013134396E+271</v>
+      </c>
+      <c r="K96" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>-3.9280841717095499E+275</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <v>-8.7827952996596408E+273</v>
+      </c>
+      <c r="E97" s="1">
+        <v>2.0033440515427599E+275</v>
+      </c>
+      <c r="F97" s="1">
+        <v>-8.7827952996596408E+273</v>
+      </c>
+      <c r="G97" s="1">
+        <v>5.9589619334072002E+277</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1.6143628305161299E+278</v>
+      </c>
+      <c r="I97" s="1">
+        <v>-3.9111457356122299E+277</v>
+      </c>
+      <c r="J97" s="1">
+        <v>-3.9290086764779301E+275</v>
+      </c>
+      <c r="K97" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1.6983781728087201E+279</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3.7709608048411703E+277</v>
+      </c>
+      <c r="E98" s="1">
+        <v>-8.6957963351220202E+278</v>
+      </c>
+      <c r="F98" s="1">
+        <v>3.7709608048411703E+277</v>
+      </c>
+      <c r="G98" s="1">
+        <v>-2.61261591961408E+281</v>
+      </c>
+      <c r="H98" s="1">
+        <v>-7.0767618101526599E+281</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1.7150575245678299E+281</v>
+      </c>
+      <c r="J98" s="1">
+        <v>1.6987709812258899E+279</v>
+      </c>
+      <c r="K98" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>-7.4709027401613097E+282</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <v>-1.6474268276244601E+281</v>
+      </c>
+      <c r="E99" s="1">
+        <v>3.84013919735632E+282</v>
+      </c>
+      <c r="F99" s="1">
+        <v>-1.6474268276244601E+281</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1.1652558844318E+285</v>
+      </c>
+      <c r="H99" s="1">
+        <v>3.1558057358629002E+285</v>
+      </c>
+      <c r="I99" s="1">
+        <v>-7.6505514692566996E+284</v>
+      </c>
+      <c r="J99" s="1">
+        <v>-7.4726011183341196E+282</v>
+      </c>
+      <c r="K99" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>3.3427335647148701E+286</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>7.3214846853580802E+284</v>
+      </c>
+      <c r="E100" s="1">
+        <v>-1.72493805641899E+286</v>
+      </c>
+      <c r="F100" s="1">
+        <v>7.3214846853580802E+284</v>
+      </c>
+      <c r="G100" s="1">
+        <v>-5.2858373871528297E+288</v>
+      </c>
+      <c r="H100" s="1">
+        <v>-1.4313114072932499E+289</v>
+      </c>
+      <c r="I100" s="1">
+        <v>3.4709804792161E+288</v>
+      </c>
+      <c r="J100" s="1">
+        <v>3.3434806549888899E+286</v>
+      </c>
+      <c r="K100" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>-1.52099278587577E+290</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <v>-3.3093062290677198E+288</v>
+      </c>
+      <c r="E101" s="1">
+        <v>7.8794497745763493E+289</v>
+      </c>
+      <c r="F101" s="1">
+        <v>-3.3093062290677198E+288</v>
+      </c>
+      <c r="G101" s="1">
+        <v>2.4381520474295799E+292</v>
+      </c>
+      <c r="H101" s="1">
+        <v>6.6010631069206999E+292</v>
+      </c>
+      <c r="I101" s="1">
+        <v>-1.6012707041096E+292</v>
+      </c>
+      <c r="J101" s="1">
+        <v>-1.5213270592322399E+290</v>
+      </c>
+      <c r="K101" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
